--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,93; 14,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 13,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 13,39</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 19,23</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 21,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 32,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,11%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 9,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 5,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 17,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 15,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 7,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,95; 8,56</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,7%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 15,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 9,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 15,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,63; 6,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 29,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 14,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 42,16</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,21; 14,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 11,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 9,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 8,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 27,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 37,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,61; 43,59</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 14,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,22; 24,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 23,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,87; 50,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 9,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 6,02</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 5,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 17,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 11,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 6,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 9,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 32,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 17,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,64; 21,98</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,93%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,92; -1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 10,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 18,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,0; -4,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 20,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 3,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 35,67</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 10,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 1,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 7,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 23,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,1; 15,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 1,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 8,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 37,76</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 3,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 7,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 4,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 8,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 5,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 12,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 15,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 18,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 13,39</t>
+          <t>-0,94; 15,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 31,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 32,03</t>
+          <t>-1,81; 39,29</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,11%</t>
+          <t>-4,62%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,19</t>
+          <t>-9,61; 4,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 8,56</t>
+          <t>-15,91; 9,09</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>18,86%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 15,12</t>
+          <t>0,04; 15,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 42,16</t>
+          <t>-0,01; 43,62</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>-4,99%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,63</t>
+          <t>1,19; 16,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,57</t>
+          <t>-13,52; 6,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 27,99</t>
+          <t>2,37; 37,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 43,59</t>
+          <t>-45,18; 29,87</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 5,25</t>
+          <t>-4,95; 5,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,02</t>
+          <t>-5,29; 5,82</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 6,98</t>
+          <t>-5,43; 7,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 21,98</t>
+          <t>-13,78; 23,1</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 18,45</t>
+          <t>-5,29; 27,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 35,67</t>
+          <t>-9,55; 51,65</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>24,77</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>41,54%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 23,24</t>
+          <t>1,99; 56,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 37,76</t>
+          <t>2,43; 195,45</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 8,36</t>
+          <t>0,48; 22,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 15,61</t>
+          <t>1,01; 52,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,38</t>
+          <t>1,98; 15,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,72</t>
+          <t>1,83; 17,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 13,58</t>
+          <t>-1,58; 14,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 15,59</t>
+          <t>-1,18; 16,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 19,23</t>
+          <t>2,72; 20,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 31,44</t>
+          <t>2,63; 29,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 21,86</t>
+          <t>-2,07; 23,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 39,29</t>
+          <t>-2,59; 41,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 9,78</t>
+          <t>-2,34; 10,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,52</t>
+          <t>-5,23; 7,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 5,93</t>
+          <t>-4,77; 5,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 4,64</t>
+          <t>-9,78; 4,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 17,58</t>
+          <t>-3,78; 18,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 15,88</t>
+          <t>-9,72; 15,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 7,75</t>
+          <t>-5,81; 7,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 9,09</t>
+          <t>-16,02; 8,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 2,48</t>
+          <t>-12,98; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 15,86</t>
+          <t>0,59; 16,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,95</t>
+          <t>-3,37; 10,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 15,52</t>
+          <t>-0,03; 14,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 6,19</t>
+          <t>-25,62; 6,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 29,11</t>
+          <t>1,13; 30,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 14,42</t>
+          <t>-4,13; 14,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 43,62</t>
+          <t>-0,08; 41,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 4,89</t>
+          <t>-8,73; 5,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 16,02</t>
+          <t>1,38; 16,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 11,58</t>
+          <t>-3,58; 10,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 6,9</t>
+          <t>-12,78; 7,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 8,22</t>
+          <t>-13,05; 9,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 37,82</t>
+          <t>2,55; 38,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 37,5</t>
+          <t>-9,16; 33,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,18; 29,87</t>
+          <t>-42,52; 31,43</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 14,96</t>
+          <t>-2,21; 14,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 24,54</t>
+          <t>5,08; 24,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 7,51</t>
+          <t>-5,51; 7,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,16</t>
+          <t>-5,29; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 23,97</t>
+          <t>-2,92; 24,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 50,59</t>
+          <t>8,8; 51,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 9,44</t>
+          <t>-6,15; 9,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,82</t>
+          <t>-5,66; 5,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,08</t>
+          <t>-11,36; 4,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 17,08</t>
+          <t>-0,14; 16,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 11,69</t>
+          <t>-3,09; 12,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 7,37</t>
+          <t>-6,59; 7,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 9,66</t>
+          <t>-18,07; 8,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 32,27</t>
+          <t>-0,44; 30,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 17,24</t>
+          <t>-3,97; 17,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 23,1</t>
+          <t>-16,67; 24,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,77</t>
+          <t>-12,4; -1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,75</t>
+          <t>0,06; 10,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 2,91</t>
+          <t>-7,13; 2,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 27,31</t>
+          <t>-5,0; 31,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -4,37</t>
+          <t>-27,58; -3,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 20,71</t>
+          <t>-0,17; 20,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 3,8</t>
+          <t>-8,75; 2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 51,65</t>
+          <t>-8,94; 60,57</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,86</t>
+          <t>1,88; 10,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,36</t>
+          <t>-6,26; 1,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 7,15</t>
+          <t>-0,05; 7,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,99; 56,04</t>
+          <t>1,81; 60,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,1; 15,32</t>
+          <t>2,49; 15,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,63</t>
+          <t>-7,14; 1,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,71</t>
+          <t>-0,01; 9,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 195,45</t>
+          <t>2,22; 237,29</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,01</t>
+          <t>-2,01; 2,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,37</t>
+          <t>2,51; 7,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,17</t>
+          <t>0,09; 4,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,18</t>
+          <t>0,33; 19,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,09</t>
+          <t>-3,27; 5,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,19</t>
+          <t>3,94; 12,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,69</t>
+          <t>0,11; 5,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,62</t>
+          <t>0,28; 47,02</t>
         </is>
       </c>
     </row>
